--- a/betogaizin.xlsx
+++ b/betogaizin.xlsx
@@ -162,9 +162,6 @@
     <t>Làm giao diện</t>
   </si>
   <si>
-    <t>Cắt giao diện Html các trang chưa có thiết kế</t>
-  </si>
-  <si>
     <t>Làm giống 1 web có sẵn</t>
   </si>
   <si>
@@ -187,6 +184,9 @@
   </si>
   <si>
     <t>Thêm sửa xóa, Nâng cấp Có sẵn</t>
+  </si>
+  <si>
+    <t>Cắt giao diện máy tính và mobile Html các trang chưa có thiết kế</t>
   </si>
 </sst>
 </file>
@@ -620,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,10 +645,10 @@
         <v>9</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F1" s="5"/>
       <c r="I1" s="5"/>
@@ -1091,7 +1091,7 @@
         <v>46</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C27" s="12">
         <v>2500000</v>
@@ -1107,10 +1107,10 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="11" t="s">
         <v>48</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>49</v>
       </c>
       <c r="C28" s="12">
         <v>1000000</v>
@@ -1156,10 +1156,10 @@
         <v>9</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -1221,7 +1221,7 @@
         <v>42</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C35" s="16">
         <v>500000</v>
@@ -1348,13 +1348,13 @@
         <v>45</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C43" s="19" t="s">
+      <c r="D43" s="21" t="s">
         <v>53</v>
-      </c>
-      <c r="D43" s="21" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">

--- a/betogaizin.xlsx
+++ b/betogaizin.xlsx
@@ -251,7 +251,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -302,11 +302,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -315,29 +328,25 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -620,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,515 +644,515 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="13" t="s">
         <v>49</v>
       </c>
       <c r="F1" s="5"/>
       <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="16">
         <v>500000</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="17">
         <v>3</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="17">
         <f>D2/8</f>
         <v>0.375</v>
       </c>
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="12">
+      <c r="A3" s="14"/>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="16">
         <v>300000</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="17">
         <v>3</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="17">
         <f t="shared" ref="E3:E29" si="0">D3/8</f>
         <v>0.375</v>
       </c>
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11" t="s">
+      <c r="A4" s="14"/>
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="16">
         <v>300000</v>
       </c>
-      <c r="D4" s="18">
-        <v>2</v>
-      </c>
-      <c r="E4" s="18">
+      <c r="D4" s="17">
+        <v>2</v>
+      </c>
+      <c r="E4" s="17">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
       <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="16">
         <v>100000</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="17">
         <v>4</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="17">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11" t="s">
+      <c r="A6" s="14"/>
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="16">
         <v>300000</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="17">
         <v>4</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="17">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="14"/>
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="16">
         <v>300000</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="17">
         <v>8</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11" t="s">
+      <c r="A8" s="14"/>
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="16">
         <v>100000</v>
       </c>
-      <c r="D8" s="18">
-        <v>2</v>
-      </c>
-      <c r="E8" s="18">
+      <c r="D8" s="17">
+        <v>2</v>
+      </c>
+      <c r="E8" s="17">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
       <c r="I8" s="5"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="14"/>
+      <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="16">
         <v>100000</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="17">
         <v>1</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="17">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
       <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="16">
         <v>300000</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="17">
         <v>8</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I10" s="5"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11" t="s">
+      <c r="A11" s="14"/>
+      <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="16">
         <v>300000</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="17">
         <v>3</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="17">
         <f t="shared" si="0"/>
         <v>0.375</v>
       </c>
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11" t="s">
+      <c r="A12" s="14"/>
+      <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="16">
         <v>300000</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="17">
         <v>3</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="17">
         <f t="shared" si="0"/>
         <v>0.375</v>
       </c>
       <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11" t="s">
+      <c r="A13" s="14"/>
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="16">
         <v>300000</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="17">
         <v>16</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="17">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11" t="s">
+      <c r="A14" s="14"/>
+      <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="16">
         <v>300000</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="17">
         <v>8</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11" t="s">
+      <c r="A15" s="14"/>
+      <c r="B15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="16">
         <v>100000</v>
       </c>
-      <c r="D15" s="18">
-        <v>2</v>
-      </c>
-      <c r="E15" s="18">
+      <c r="D15" s="17">
+        <v>2</v>
+      </c>
+      <c r="E15" s="17">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="16">
         <v>300000</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="17">
         <v>1</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="17">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="12">
+      <c r="B17" s="2"/>
+      <c r="C17" s="16">
         <v>1500000</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="17">
         <v>8</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="12">
+      <c r="B18" s="2"/>
+      <c r="C18" s="16">
         <v>500000</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="17">
         <v>1</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="17">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
       <c r="I18" s="5"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="12">
+      <c r="B19" s="2"/>
+      <c r="C19" s="16">
         <v>50000</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="17">
         <v>1</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="17">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
       <c r="I19" s="5"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="12">
+      <c r="B20" s="2"/>
+      <c r="C20" s="16">
         <v>300000</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="17">
         <v>8</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I20" s="5"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12">
+      <c r="B21" s="2"/>
+      <c r="C21" s="16">
         <v>200000</v>
       </c>
-      <c r="D21" s="18">
-        <v>2</v>
-      </c>
-      <c r="E21" s="18">
+      <c r="D21" s="17">
+        <v>2</v>
+      </c>
+      <c r="E21" s="17">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
       <c r="I21" s="5"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12">
+      <c r="B22" s="2"/>
+      <c r="C22" s="16">
         <v>100000</v>
       </c>
-      <c r="D22" s="18">
-        <v>2</v>
-      </c>
-      <c r="E22" s="18">
+      <c r="D22" s="17">
+        <v>2</v>
+      </c>
+      <c r="E22" s="17">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
       <c r="I22" s="5"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12">
+      <c r="B23" s="2"/>
+      <c r="C23" s="16">
         <v>100000</v>
       </c>
-      <c r="D23" s="18">
-        <v>2</v>
-      </c>
-      <c r="E23" s="18">
+      <c r="D23" s="17">
+        <v>2</v>
+      </c>
+      <c r="E23" s="17">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
       <c r="I23" s="5"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="16">
         <v>300000</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D24" s="17">
         <v>4</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E24" s="17">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="I24" s="5"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="11" t="s">
+      <c r="A25" s="14"/>
+      <c r="B25" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="16">
         <v>100000</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D25" s="17">
         <v>4</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E25" s="17">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="I25" s="5"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="12">
+      <c r="B26" s="2"/>
+      <c r="C26" s="16">
         <v>150000</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D26" s="17">
         <v>3</v>
       </c>
-      <c r="E26" s="18">
+      <c r="E26" s="17">
         <f t="shared" si="0"/>
         <v>0.375</v>
       </c>
       <c r="I26" s="5"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="16">
         <v>2500000</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D27" s="17">
         <v>48</v>
       </c>
-      <c r="E27" s="18">
+      <c r="E27" s="17">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I27" s="5"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="16">
         <v>1000000</v>
       </c>
-      <c r="D28" s="18">
+      <c r="D28" s="17">
         <v>16</v>
       </c>
-      <c r="E28" s="18">
+      <c r="E28" s="17">
         <f>D28/8</f>
         <v>2</v>
       </c>
       <c r="I28" s="5"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="14">
+      <c r="B29" s="2"/>
+      <c r="C29" s="18">
         <f>SUM(C2:C28)</f>
         <v>10700000</v>
       </c>
-      <c r="D29" s="18">
+      <c r="D29" s="17">
         <f>SUM(D2:D26)</f>
         <v>103</v>
       </c>
-      <c r="E29" s="18">
+      <c r="E29" s="17">
         <f t="shared" si="0"/>
         <v>12.875</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C30" s="9"/>
+      <c r="C30" s="8"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
@@ -1163,170 +1172,170 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C32" s="16">
         <v>1000000</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="2">
         <v>16</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="2">
         <f>D32/8</f>
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C33" s="16">
         <v>2000000</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="2">
         <v>16</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="2">
         <f t="shared" ref="E33:E41" si="1">D33/8</f>
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C34" s="16">
         <v>500000</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="2">
         <v>16</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="2">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C35" s="16">
         <v>500000</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="2">
         <v>16</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="2">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C36" s="16">
         <v>500000</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="2">
         <v>16</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="2">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C37" s="16">
         <v>500000</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="2">
         <v>16</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="2">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C38" s="16">
         <v>1000000</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="2">
         <v>16</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="2">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C39" s="16">
         <v>1000000</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39" s="2">
         <v>16</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39" s="2">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="6"/>
+      <c r="B40" s="2"/>
       <c r="C40" s="16">
         <v>200000</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="2">
         <v>16</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="2">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41" s="7">
         <f>SUM(C32:C40)</f>
         <v>7200000</v>
       </c>
@@ -1350,15 +1359,15 @@
       <c r="B43" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="19" t="s">
+      <c r="C43" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D43" s="21" t="s">
+      <c r="D43" s="11" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="7">
+      <c r="A44" s="6">
         <f>C29+C41</f>
         <v>17900000</v>
       </c>
@@ -1366,11 +1375,11 @@
         <f>D29+D41</f>
         <v>247</v>
       </c>
-      <c r="C44" s="20">
+      <c r="C44" s="10">
         <f>B44/8</f>
         <v>30.875</v>
       </c>
-      <c r="D44" s="22">
+      <c r="D44" s="12">
         <f>C44/24</f>
         <v>1.2864583333333333</v>
       </c>

--- a/betogaizin.xlsx
+++ b/betogaizin.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="59">
   <si>
     <t>Chức năng Frontend</t>
   </si>
@@ -187,6 +187,15 @@
   </si>
   <si>
     <t>Cắt giao diện máy tính và mobile Html các trang chưa có thiết kế</t>
+  </si>
+  <si>
+    <t>Thiết kế photoshop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vẽ trên photoshop </t>
+  </si>
+  <si>
+    <t>Chưa xác định</t>
   </si>
 </sst>
 </file>
@@ -319,7 +328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -347,6 +356,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -627,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,7 +705,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="17">
-        <f t="shared" ref="E3:E29" si="0">D3/8</f>
+        <f t="shared" ref="E3:E30" si="0">D3/8</f>
         <v>0.375</v>
       </c>
       <c r="I3" s="5"/>
@@ -1134,103 +1146,102 @@
       <c r="I28" s="5"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="18">
+      <c r="B30" s="2"/>
+      <c r="C30" s="18">
         <f>SUM(C2:C28)</f>
         <v>10700000</v>
       </c>
-      <c r="D29" s="17">
+      <c r="D30" s="17">
         <f>SUM(D2:D26)</f>
         <v>103</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E30" s="17">
         <f t="shared" si="0"/>
         <v>12.875</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C30" s="8"/>
-    </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="C31" s="8"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B32" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C32" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D32" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E32" s="4" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="16">
-        <v>1000000</v>
-      </c>
-      <c r="D32" s="2">
-        <v>16</v>
-      </c>
-      <c r="E32" s="2">
-        <f>D32/8</f>
-        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C33" s="16">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
       <c r="D33" s="2">
         <v>16</v>
       </c>
       <c r="E33" s="2">
-        <f t="shared" ref="E33:E41" si="1">D33/8</f>
+        <f>D33/8</f>
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C34" s="16">
-        <v>500000</v>
+        <v>2000000</v>
       </c>
       <c r="D34" s="2">
         <v>16</v>
       </c>
       <c r="E34" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E34:E42" si="1">D34/8</f>
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C35" s="16">
         <v>500000</v>
@@ -1245,10 +1256,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="C36" s="16">
         <v>500000</v>
@@ -1263,7 +1274,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>38</v>
@@ -1281,13 +1292,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C38" s="16">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="D38" s="2">
         <v>16</v>
@@ -1299,7 +1310,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>38</v>
@@ -1317,11 +1328,13 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B40" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="C40" s="16">
-        <v>200000</v>
+        <v>1000000</v>
       </c>
       <c r="D40" s="2">
         <v>16</v>
@@ -1332,55 +1345,71 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="16">
+        <v>200000</v>
+      </c>
+      <c r="D41" s="2">
+        <v>16</v>
+      </c>
+      <c r="E41" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="7">
-        <f>SUM(C32:C40)</f>
+      <c r="C42" s="7">
+        <f>SUM(C33:C41)</f>
         <v>7200000</v>
       </c>
-      <c r="D41">
-        <f>SUM(D32:D40)</f>
+      <c r="D42">
+        <f>SUM(D33:D41)</f>
         <v>144</v>
       </c>
-      <c r="E41">
+      <c r="E42">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-    </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B44" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C44" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="D44" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="6">
-        <f>C29+C41</f>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="6">
+        <f>C30+C42</f>
         <v>17900000</v>
       </c>
-      <c r="B44" s="1">
-        <f>D29+D41</f>
+      <c r="B45" s="1">
+        <f>D30+D42</f>
         <v>247</v>
       </c>
-      <c r="C44" s="10">
-        <f>B44/8</f>
+      <c r="C45" s="10">
+        <f>B45/8</f>
         <v>30.875</v>
       </c>
-      <c r="D44" s="12">
-        <f>C44/24</f>
+      <c r="D45" s="12">
+        <f>C45/24</f>
         <v>1.2864583333333333</v>
       </c>
     </row>

--- a/betogaizin.xlsx
+++ b/betogaizin.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="61">
   <si>
     <t>Chức năng Frontend</t>
   </si>
@@ -196,6 +196,12 @@
   </si>
   <si>
     <t>Chưa xác định</t>
+  </si>
+  <si>
+    <t>Nhiều ngôn ngữ</t>
+  </si>
+  <si>
+    <t>2 ngôn ngữ tiếng anh và tiếng việt</t>
   </si>
 </sst>
 </file>
@@ -639,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,7 +711,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="17">
-        <f t="shared" ref="E3:E30" si="0">D3/8</f>
+        <f t="shared" ref="E3:E31" si="0">D3/8</f>
         <v>0.375</v>
       </c>
       <c r="I3" s="5"/>
@@ -837,7 +843,7 @@
         <v>14</v>
       </c>
       <c r="C11" s="16">
-        <v>300000</v>
+        <v>100000</v>
       </c>
       <c r="D11" s="17">
         <v>3</v>
@@ -854,7 +860,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="16">
-        <v>300000</v>
+        <v>100000</v>
       </c>
       <c r="D12" s="17">
         <v>3</v>
@@ -941,7 +947,7 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="16">
-        <v>1500000</v>
+        <v>500000</v>
       </c>
       <c r="D17" s="17">
         <v>8</v>
@@ -1109,157 +1115,157 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C27" s="16">
-        <v>2500000</v>
+        <v>300000</v>
       </c>
       <c r="D27" s="17">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="E27" s="17">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0.625</v>
       </c>
       <c r="I27" s="5"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="16">
+        <v>2500000</v>
+      </c>
+      <c r="D28" s="17">
         <v>48</v>
       </c>
-      <c r="C28" s="16">
-        <v>1000000</v>
-      </c>
-      <c r="D28" s="17">
-        <v>16</v>
-      </c>
       <c r="E28" s="17">
-        <f>D28/8</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="I28" s="5"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="16">
+        <v>1000000</v>
+      </c>
+      <c r="D29" s="17">
+        <v>16</v>
+      </c>
+      <c r="E29" s="17">
+        <f>D29/8</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C30" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D30" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="E29" s="19" t="s">
+      <c r="E30" s="19" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="18">
-        <f>SUM(C2:C28)</f>
-        <v>10700000</v>
-      </c>
-      <c r="D30" s="17">
+      <c r="B31" s="2"/>
+      <c r="C31" s="18">
+        <f>SUM(C2:C29)</f>
+        <v>9600000</v>
+      </c>
+      <c r="D31" s="17">
         <f>SUM(D2:D26)</f>
         <v>103</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E31" s="17">
         <f t="shared" si="0"/>
         <v>12.875</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C31" s="8"/>
-    </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="C32" s="8"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B33" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C33" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D33" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E33" s="4" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" s="16">
-        <v>1000000</v>
-      </c>
-      <c r="D33" s="2">
-        <v>16</v>
-      </c>
-      <c r="E33" s="2">
-        <f>D33/8</f>
-        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C34" s="16">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
       <c r="D34" s="2">
         <v>16</v>
       </c>
       <c r="E34" s="2">
-        <f t="shared" ref="E34:E42" si="1">D34/8</f>
+        <f>D34/8</f>
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C35" s="16">
-        <v>500000</v>
+        <v>2000000</v>
       </c>
       <c r="D35" s="2">
         <v>16</v>
       </c>
       <c r="E35" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E35:E43" si="1">D35/8</f>
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C36" s="16">
         <v>500000</v>
@@ -1274,10 +1280,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="C37" s="16">
         <v>500000</v>
@@ -1292,7 +1298,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>38</v>
@@ -1310,13 +1316,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C39" s="16">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="D39" s="2">
         <v>16</v>
@@ -1328,7 +1334,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>38</v>
@@ -1346,11 +1352,13 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B41" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="C41" s="16">
-        <v>200000</v>
+        <v>1000000</v>
       </c>
       <c r="D41" s="2">
         <v>16</v>
@@ -1361,55 +1369,71 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="16">
+        <v>200000</v>
+      </c>
+      <c r="D42" s="2">
+        <v>16</v>
+      </c>
+      <c r="E42" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C42" s="7">
-        <f>SUM(C33:C41)</f>
+      <c r="C43" s="7">
+        <f>SUM(C34:C42)</f>
         <v>7200000</v>
       </c>
-      <c r="D42">
-        <f>SUM(D33:D41)</f>
+      <c r="D43">
+        <f>SUM(D34:D42)</f>
         <v>144</v>
       </c>
-      <c r="E42">
+      <c r="E43">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-    </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B45" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C45" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="D45" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="6">
-        <f>C30+C42</f>
-        <v>17900000</v>
-      </c>
-      <c r="B45" s="1">
-        <f>D30+D42</f>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="6">
+        <f>C31+C43</f>
+        <v>16800000</v>
+      </c>
+      <c r="B46" s="1">
+        <f>D31+D43</f>
         <v>247</v>
       </c>
-      <c r="C45" s="10">
-        <f>B45/8</f>
+      <c r="C46" s="10">
+        <f>B46/8</f>
         <v>30.875</v>
       </c>
-      <c r="D45" s="12">
-        <f>C45/24</f>
+      <c r="D46" s="12">
+        <f>C46/24</f>
         <v>1.2864583333333333</v>
       </c>
     </row>

--- a/betogaizin.xlsx
+++ b/betogaizin.xlsx
@@ -647,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1140,7 +1140,7 @@
         <v>55</v>
       </c>
       <c r="C28" s="16">
-        <v>2500000</v>
+        <v>3000000</v>
       </c>
       <c r="D28" s="17">
         <v>48</v>
@@ -1193,7 +1193,7 @@
       <c r="B31" s="2"/>
       <c r="C31" s="18">
         <f>SUM(C2:C29)</f>
-        <v>9600000</v>
+        <v>10100000</v>
       </c>
       <c r="D31" s="17">
         <f>SUM(D2:D26)</f>
@@ -1422,7 +1422,7 @@
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <f>C31+C43</f>
-        <v>16800000</v>
+        <v>17300000</v>
       </c>
       <c r="B46" s="1">
         <f>D31+D43</f>

--- a/betogaizin.xlsx
+++ b/betogaizin.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="63">
   <si>
     <t>Chức năng Frontend</t>
   </si>
@@ -202,6 +202,12 @@
   </si>
   <si>
     <t>2 ngôn ngữ tiếng anh và tiếng việt</t>
+  </si>
+  <si>
+    <t>Tối ưu xử lý tăng tốc độ load</t>
+  </si>
+  <si>
+    <t>Cache và tối ưu hình ảnh nén &amp; xử lý trên vps</t>
   </si>
 </sst>
 </file>
@@ -645,16 +651,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.42578125" customWidth="1"/>
-    <col min="2" max="2" width="40" customWidth="1"/>
+    <col min="2" max="2" width="43.140625" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" customWidth="1"/>
@@ -688,7 +694,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="16">
-        <v>500000</v>
+        <v>300000</v>
       </c>
       <c r="D2" s="17">
         <v>3</v>
@@ -711,7 +717,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="17">
-        <f t="shared" ref="E3:E31" si="0">D3/8</f>
+        <f t="shared" ref="E3:E32" si="0">D3/8</f>
         <v>0.375</v>
       </c>
       <c r="I3" s="5"/>
@@ -1134,156 +1140,156 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C28" s="16">
-        <v>3000000</v>
+        <v>500000</v>
       </c>
       <c r="D28" s="17">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="E28" s="17">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0.25</v>
       </c>
       <c r="I28" s="5"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="16">
+        <v>3000000</v>
+      </c>
+      <c r="D29" s="17">
         <v>48</v>
       </c>
-      <c r="C29" s="16">
-        <v>1000000</v>
-      </c>
-      <c r="D29" s="17">
-        <v>16</v>
-      </c>
       <c r="E29" s="17">
-        <f>D29/8</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="16">
+        <v>1000000</v>
+      </c>
+      <c r="D30" s="17">
+        <v>16</v>
+      </c>
+      <c r="E30" s="17">
+        <f>D30/8</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C31" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="D30" s="19" t="s">
+      <c r="D31" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="E30" s="19" t="s">
+      <c r="E31" s="19" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="18">
-        <f>SUM(C2:C29)</f>
-        <v>10100000</v>
-      </c>
-      <c r="D31" s="17">
+      <c r="B32" s="2"/>
+      <c r="C32" s="18">
+        <f>SUM(C2:C30)</f>
+        <v>10400000</v>
+      </c>
+      <c r="D32" s="17">
         <f>SUM(D2:D26)</f>
         <v>103</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E32" s="17">
         <f t="shared" si="0"/>
         <v>12.875</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C32" s="8"/>
-    </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="C33" s="8"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B34" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C34" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D34" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E34" s="4" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" s="16">
-        <v>1000000</v>
-      </c>
-      <c r="D34" s="2">
-        <v>16</v>
-      </c>
-      <c r="E34" s="2">
-        <f>D34/8</f>
-        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C35" s="16">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
       <c r="D35" s="2">
         <v>16</v>
       </c>
       <c r="E35" s="2">
-        <f t="shared" ref="E35:E43" si="1">D35/8</f>
+        <f>D35/8</f>
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C36" s="16">
-        <v>500000</v>
+        <v>2000000</v>
       </c>
       <c r="D36" s="2">
         <v>16</v>
       </c>
       <c r="E36" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E36:E44" si="1">D36/8</f>
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C37" s="16">
         <v>500000</v>
@@ -1298,10 +1304,10 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="C38" s="16">
         <v>500000</v>
@@ -1316,7 +1322,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>38</v>
@@ -1334,13 +1340,13 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C40" s="16">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="D40" s="2">
         <v>16</v>
@@ -1352,7 +1358,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>38</v>
@@ -1370,11 +1376,13 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B42" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="C42" s="16">
-        <v>200000</v>
+        <v>1000000</v>
       </c>
       <c r="D42" s="2">
         <v>16</v>
@@ -1385,56 +1393,72 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="16">
+        <v>200000</v>
+      </c>
+      <c r="D43" s="2">
+        <v>16</v>
+      </c>
+      <c r="E43" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C43" s="7">
-        <f>SUM(C34:C42)</f>
+      <c r="C44" s="7">
+        <f>SUM(C35:C43)</f>
         <v>7200000</v>
       </c>
-      <c r="D43">
-        <f>SUM(D34:D42)</f>
+      <c r="D44">
+        <f>SUM(D35:D43)</f>
         <v>144</v>
       </c>
-      <c r="E43">
+      <c r="E44">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-    </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B46" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C46" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="D46" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="6">
-        <f>C31+C43</f>
-        <v>17300000</v>
-      </c>
-      <c r="B46" s="1">
-        <f>D31+D43</f>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="6">
+        <f>C32+C44</f>
+        <v>17600000</v>
+      </c>
+      <c r="B47" s="1">
+        <f>D32+D44</f>
         <v>247</v>
       </c>
-      <c r="C46" s="10">
-        <f>B46/8</f>
+      <c r="C47" s="10">
+        <f>B47/8</f>
         <v>30.875</v>
       </c>
-      <c r="D46" s="12">
-        <f>C46/24</f>
-        <v>1.2864583333333333</v>
+      <c r="D47" s="12">
+        <f>ROUNDUP(C47/24,1)</f>
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/betogaizin.xlsx
+++ b/betogaizin.xlsx
@@ -653,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/betogaizin.xlsx
+++ b/betogaizin.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="68">
   <si>
     <t>Chức năng Frontend</t>
   </si>
@@ -111,9 +111,6 @@
     <t>Quản lý đơn hàng</t>
   </si>
   <si>
-    <t>Quản lý địa chỉ</t>
-  </si>
-  <si>
     <t>Tìm kiếm</t>
   </si>
   <si>
@@ -138,12 +135,6 @@
     <t>Thêm sửa xóa</t>
   </si>
   <si>
-    <t>Thêm sửa xóa, phân quyền</t>
-  </si>
-  <si>
-    <t>Xem , sửa , xóa, duyệt đơn hàng</t>
-  </si>
-  <si>
     <t xml:space="preserve">Thêm sửa xóa </t>
   </si>
   <si>
@@ -162,6 +153,9 @@
     <t>Làm giao diện</t>
   </si>
   <si>
+    <t>Cắt giao diện Html các trang chưa có thiết kế</t>
+  </si>
+  <si>
     <t>Làm giống 1 web có sẵn</t>
   </si>
   <si>
@@ -183,31 +177,52 @@
     <t>Số tháng</t>
   </si>
   <si>
-    <t>Thêm sửa xóa, Nâng cấp Có sẵn</t>
-  </si>
-  <si>
-    <t>Cắt giao diện máy tính và mobile Html các trang chưa có thiết kế</t>
-  </si>
-  <si>
-    <t>Thiết kế photoshop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vẽ trên photoshop </t>
-  </si>
-  <si>
-    <t>Chưa xác định</t>
-  </si>
-  <si>
-    <t>Nhiều ngôn ngữ</t>
-  </si>
-  <si>
-    <t>2 ngôn ngữ tiếng anh và tiếng việt</t>
-  </si>
-  <si>
-    <t>Tối ưu xử lý tăng tốc độ load</t>
-  </si>
-  <si>
-    <t>Cache và tối ưu hình ảnh nén &amp; xử lý trên vps</t>
+    <t>Thêm Review của Fanpage FB trên website.</t>
+  </si>
+  <si>
+    <t>Add plugin chat MXH facebook, Zalo, Line.</t>
+  </si>
+  <si>
+    <t>Có tính năng quản lý kho hàng đối với SP Sim.</t>
+  </si>
+  <si>
+    <t>Đơn hàng chuyển khoản cho phép khách up ảnh hoá đơn lên web.</t>
+  </si>
+  <si>
+    <t>Xem , sửa , xóa, Các đơn hàng đặt trên web sẽ đẩy vào form chờ admin xác nhận, khi xác nhận xong thì đẩy sang form để đặt hàng.(cần biết thông tin ai xác nhận đơn hàng)</t>
+  </si>
+  <si>
+    <t>Thêm sửa xóa, Nâng cấp Có sẵn Có option cho sản phẩm nhiều loại cân nặng hay gói cước 1 tháng, nhiều tháng.</t>
+  </si>
+  <si>
+    <t>Thêm sửa xóa, phân quyền,Gắn tag những khách hàng thân quen, khách cần chú ý, dễ boom hàng,Nhận diện được KH thân thiết, quen, hay mua nhiều</t>
+  </si>
+  <si>
+    <t>View thông tin tracking đơn hàng, view số tiền cần thanh toán hàng đối với đơn SIM, cho phép up hoá đơn của tháng đó.</t>
+  </si>
+  <si>
+    <t>Gửi tin nhắn từ FB KH lên fanpage khi đặt xong đơn hàng.</t>
+  </si>
+  <si>
+    <t>Đăng nhập bằng FB</t>
+  </si>
+  <si>
+    <t>Thống kê số lượng đơn hàng, đơn hàng gần nhất.</t>
+  </si>
+  <si>
+    <t>Quản lý địa chỉ Lưu địa chỉ đặt hàng cũ, có thể lưu nhiều địa chỉ à nhận diện được địa chỉ cũ, hay mới (cảnh báo cho admin cần check lại địa chỉ mới).</t>
+  </si>
+  <si>
+    <t>Cho phép KH đánh giá</t>
+  </si>
+  <si>
+    <t>cho khách up ảnh sp ở trang SP</t>
+  </si>
+  <si>
+    <t>từ động gửi tn lên fb khách hàng</t>
+  </si>
+  <si>
+    <t>Chức năng Backend</t>
   </si>
 </sst>
 </file>
@@ -340,7 +355,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -358,19 +373,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -651,16 +670,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.42578125" customWidth="1"/>
-    <col min="2" max="2" width="43.140625" customWidth="1"/>
+    <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" customWidth="1"/>
@@ -668,797 +687,895 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>49</v>
+      <c r="D1" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>47</v>
       </c>
       <c r="F1" s="5"/>
       <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="14">
+        <v>500000</v>
+      </c>
+      <c r="D2" s="15">
+        <v>4</v>
+      </c>
+      <c r="E2" s="15">
+        <f>D2/8</f>
+        <v>0.5</v>
+      </c>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="13"/>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="14">
         <v>300000</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D3" s="15">
         <v>3</v>
       </c>
-      <c r="E2" s="17">
-        <f>D2/8</f>
+      <c r="E3" s="15">
+        <f t="shared" ref="E3:E36" si="0">D3/8</f>
         <v>0.375</v>
       </c>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="16">
-        <v>300000</v>
-      </c>
-      <c r="D3" s="17">
-        <v>3</v>
-      </c>
-      <c r="E3" s="17">
-        <f t="shared" ref="E3:E32" si="0">D3/8</f>
-        <v>0.375</v>
-      </c>
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="14">
         <v>300000</v>
       </c>
-      <c r="D4" s="17">
-        <v>2</v>
-      </c>
-      <c r="E4" s="17">
+      <c r="D4" s="15">
+        <v>2</v>
+      </c>
+      <c r="E4" s="15">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
       <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="14">
         <v>100000</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="15">
         <v>4</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="15">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="14">
         <v>300000</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="15">
         <v>4</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="15">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="14">
         <v>300000</v>
       </c>
-      <c r="D7" s="17">
-        <v>8</v>
-      </c>
-      <c r="E7" s="17">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="D7" s="15">
+        <v>3</v>
+      </c>
+      <c r="E7" s="15">
+        <f t="shared" si="0"/>
+        <v>0.375</v>
       </c>
       <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="14">
         <v>100000</v>
       </c>
-      <c r="D8" s="17">
-        <v>2</v>
-      </c>
-      <c r="E8" s="17">
+      <c r="D8" s="15">
+        <v>2</v>
+      </c>
+      <c r="E8" s="15">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
       <c r="I8" s="5"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="14">
         <v>100000</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="15">
         <v>1</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="15">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
       <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="14">
         <v>300000</v>
       </c>
-      <c r="D10" s="17">
-        <v>8</v>
-      </c>
-      <c r="E10" s="17">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="D10" s="15">
+        <v>3</v>
+      </c>
+      <c r="E10" s="15">
+        <f t="shared" si="0"/>
+        <v>0.375</v>
       </c>
       <c r="I10" s="5"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="16">
-        <v>100000</v>
-      </c>
-      <c r="D11" s="17">
+      <c r="C11" s="14">
+        <v>300000</v>
+      </c>
+      <c r="D11" s="15">
         <v>3</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="15">
         <f t="shared" si="0"/>
         <v>0.375</v>
       </c>
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="16">
-        <v>100000</v>
-      </c>
-      <c r="D12" s="17">
+      <c r="C12" s="14">
+        <v>300000</v>
+      </c>
+      <c r="D12" s="15">
         <v>3</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="15">
         <f t="shared" si="0"/>
         <v>0.375</v>
       </c>
       <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="14">
         <v>300000</v>
       </c>
-      <c r="D13" s="17">
-        <v>16</v>
-      </c>
-      <c r="E13" s="17">
-        <f t="shared" si="0"/>
-        <v>2</v>
+      <c r="D13" s="15">
+        <v>3</v>
+      </c>
+      <c r="E13" s="15">
+        <f t="shared" si="0"/>
+        <v>0.375</v>
       </c>
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="14">
         <v>300000</v>
       </c>
-      <c r="D14" s="17">
-        <v>8</v>
-      </c>
-      <c r="E14" s="17">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="D14" s="15">
+        <v>4</v>
+      </c>
+      <c r="E14" s="15">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
       </c>
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="14">
         <v>100000</v>
       </c>
-      <c r="D15" s="17">
-        <v>2</v>
-      </c>
-      <c r="E15" s="17">
+      <c r="D15" s="15">
+        <v>2</v>
+      </c>
+      <c r="E15" s="15">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="14">
         <v>300000</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="15">
         <v>1</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="15">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="13" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="2"/>
-      <c r="C17" s="16">
+      <c r="C17" s="14">
         <v>500000</v>
       </c>
-      <c r="D17" s="17">
-        <v>8</v>
-      </c>
-      <c r="E17" s="17">
-        <f t="shared" si="0"/>
+      <c r="D17" s="15">
+        <v>4</v>
+      </c>
+      <c r="E17" s="15">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="14">
+        <v>500000</v>
+      </c>
+      <c r="D18" s="15">
         <v>1</v>
       </c>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="16">
-        <v>500000</v>
-      </c>
-      <c r="D18" s="17">
+      <c r="E18" s="15">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="14">
+        <v>50000</v>
+      </c>
+      <c r="D19" s="15">
         <v>1</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E19" s="15">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="16">
-        <v>50000</v>
-      </c>
-      <c r="D19" s="17">
-        <v>1</v>
-      </c>
-      <c r="E19" s="17">
-        <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
       <c r="I19" s="5"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="13" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="16">
+      <c r="C20" s="14">
         <v>300000</v>
       </c>
-      <c r="D20" s="17">
-        <v>8</v>
-      </c>
-      <c r="E20" s="17">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="D20" s="15">
+        <v>4</v>
+      </c>
+      <c r="E20" s="15">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
       </c>
       <c r="I20" s="5"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="13" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="2"/>
-      <c r="C21" s="16">
+      <c r="C21" s="14">
         <v>200000</v>
       </c>
-      <c r="D21" s="17">
-        <v>2</v>
-      </c>
-      <c r="E21" s="17">
+      <c r="D21" s="15">
+        <v>2</v>
+      </c>
+      <c r="E21" s="15">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
       <c r="I21" s="5"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="16">
+      <c r="C22" s="14">
         <v>100000</v>
       </c>
-      <c r="D22" s="17">
-        <v>2</v>
-      </c>
-      <c r="E22" s="17">
+      <c r="D22" s="15">
+        <v>2</v>
+      </c>
+      <c r="E22" s="15">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
       <c r="I22" s="5"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="13" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="16">
+      <c r="C23" s="14">
         <v>100000</v>
       </c>
-      <c r="D23" s="17">
-        <v>2</v>
-      </c>
-      <c r="E23" s="17">
+      <c r="D23" s="15">
+        <v>2</v>
+      </c>
+      <c r="E23" s="15">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
       <c r="I23" s="5"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="13" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="16">
+      <c r="C24" s="14">
+        <v>500000</v>
+      </c>
+      <c r="D24" s="15">
+        <v>4</v>
+      </c>
+      <c r="E24" s="15">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+      <c r="B25" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="14">
+        <v>500000</v>
+      </c>
+      <c r="D25" s="15">
+        <v>4</v>
+      </c>
+      <c r="E25" s="15">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
+      <c r="B26" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="14">
+        <v>50000</v>
+      </c>
+      <c r="D26" s="15">
+        <v>2</v>
+      </c>
+      <c r="E26" s="15">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
+      <c r="B27" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="14">
+        <v>50000</v>
+      </c>
+      <c r="D27" s="15">
+        <v>2</v>
+      </c>
+      <c r="E27" s="15">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="13"/>
+      <c r="B28" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="14">
+        <v>100000</v>
+      </c>
+      <c r="D28" s="15">
+        <v>4</v>
+      </c>
+      <c r="E28" s="15">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="13"/>
+      <c r="B29" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="14">
+        <v>100000</v>
+      </c>
+      <c r="D29" s="15">
+        <v>2</v>
+      </c>
+      <c r="E29" s="15">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="13"/>
+      <c r="B30" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="14">
+        <v>2000000</v>
+      </c>
+      <c r="D30" s="15">
+        <v>4</v>
+      </c>
+      <c r="E30" s="15">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="13"/>
+      <c r="B31" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="14">
         <v>300000</v>
       </c>
-      <c r="D24" s="17">
-        <v>4</v>
-      </c>
-      <c r="E24" s="17">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="I24" s="5"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="2" t="s">
+      <c r="D31" s="15">
+        <v>2</v>
+      </c>
+      <c r="E31" s="15">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="14">
+        <v>100000</v>
+      </c>
+      <c r="D32" s="15">
+        <v>2</v>
+      </c>
+      <c r="E32" s="15">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="14">
+        <v>150000</v>
+      </c>
+      <c r="D33" s="15">
+        <v>1</v>
+      </c>
+      <c r="E33" s="15">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="16">
-        <v>100000</v>
-      </c>
-      <c r="D25" s="17">
-        <v>4</v>
-      </c>
-      <c r="E25" s="17">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="I25" s="5"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
+      <c r="B34" s="2"/>
+      <c r="C34" s="14">
+        <v>50000</v>
+      </c>
+      <c r="D34" s="15">
+        <v>1</v>
+      </c>
+      <c r="E34" s="15">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="14">
+        <v>0</v>
+      </c>
+      <c r="D35" s="15">
+        <v>0</v>
+      </c>
+      <c r="E35" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="21">
+        <v>5000000</v>
+      </c>
+      <c r="D36" s="15">
+        <v>48</v>
+      </c>
+      <c r="E36" s="15">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="18">
+        <f>SUM(C3:C36)</f>
+        <v>14050000</v>
+      </c>
+      <c r="D37" s="15">
+        <f>SUM(D3:D34)</f>
+        <v>82</v>
+      </c>
+      <c r="E37" s="15">
+        <f t="shared" ref="E37" si="1">D37/8</f>
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A39" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="16">
-        <v>150000</v>
-      </c>
-      <c r="D26" s="17">
-        <v>3</v>
-      </c>
-      <c r="E26" s="17">
-        <f t="shared" si="0"/>
-        <v>0.375</v>
-      </c>
-      <c r="I26" s="5"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="16">
-        <v>300000</v>
-      </c>
-      <c r="D27" s="17">
-        <v>5</v>
-      </c>
-      <c r="E27" s="17">
-        <f t="shared" si="0"/>
-        <v>0.625</v>
-      </c>
-      <c r="I27" s="5"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" s="16">
-        <v>500000</v>
-      </c>
-      <c r="D28" s="17">
-        <v>2</v>
-      </c>
-      <c r="E28" s="17">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-      <c r="I28" s="5"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="16">
-        <v>3000000</v>
-      </c>
-      <c r="D29" s="17">
-        <v>48</v>
-      </c>
-      <c r="E29" s="17">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" s="16">
+      <c r="B39" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" s="14">
         <v>1000000</v>
-      </c>
-      <c r="D30" s="17">
-        <v>16</v>
-      </c>
-      <c r="E30" s="17">
-        <f>D30/8</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="E31" s="19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="18">
-        <f>SUM(C2:C30)</f>
-        <v>10400000</v>
-      </c>
-      <c r="D32" s="17">
-        <f>SUM(D2:D26)</f>
-        <v>103</v>
-      </c>
-      <c r="E32" s="17">
-        <f t="shared" si="0"/>
-        <v>12.875</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C33" s="8"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C35" s="16">
-        <v>1000000</v>
-      </c>
-      <c r="D35" s="2">
-        <v>16</v>
-      </c>
-      <c r="E35" s="2">
-        <f>D35/8</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" s="16">
-        <v>2000000</v>
-      </c>
-      <c r="D36" s="2">
-        <v>16</v>
-      </c>
-      <c r="E36" s="2">
-        <f t="shared" ref="E36:E44" si="1">D36/8</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C37" s="16">
-        <v>500000</v>
-      </c>
-      <c r="D37" s="2">
-        <v>16</v>
-      </c>
-      <c r="E37" s="2">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C38" s="16">
-        <v>500000</v>
-      </c>
-      <c r="D38" s="2">
-        <v>16</v>
-      </c>
-      <c r="E38" s="2">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C39" s="16">
-        <v>500000</v>
       </c>
       <c r="D39" s="2">
         <v>16</v>
       </c>
       <c r="E39" s="2">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C40" s="16">
-        <v>500000</v>
+        <f>D39/8</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A40" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" s="14">
+        <v>2000000</v>
       </c>
       <c r="D40" s="2">
         <v>16</v>
       </c>
       <c r="E40" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E40:E48" si="2">D40/8</f>
         <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="14" t="s">
-        <v>35</v>
+      <c r="A41" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="16">
-        <v>1000000</v>
+      <c r="C41" s="14">
+        <v>500000</v>
       </c>
       <c r="D41" s="2">
         <v>16</v>
       </c>
       <c r="E41" s="2">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C42" s="16">
-        <v>1000000</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" s="14">
+        <v>1500000</v>
       </c>
       <c r="D42" s="2">
         <v>16</v>
       </c>
       <c r="E42" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="16">
-        <v>200000</v>
+      <c r="C43" s="14">
+        <v>500000</v>
       </c>
       <c r="D43" s="2">
         <v>16</v>
       </c>
       <c r="E43" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C44" s="7">
-        <f>SUM(C35:C43)</f>
-        <v>7200000</v>
-      </c>
-      <c r="D44">
-        <f>SUM(D35:D43)</f>
-        <v>144</v>
-      </c>
-      <c r="E44">
-        <f t="shared" si="1"/>
-        <v>18</v>
+      <c r="A44" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" s="14">
+        <v>500000</v>
+      </c>
+      <c r="D44" s="2">
+        <v>16</v>
+      </c>
+      <c r="E44" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
+      <c r="A45" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="D45" s="2">
+        <v>16</v>
+      </c>
+      <c r="E45" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>45</v>
+      <c r="A46" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" s="14">
+        <v>1000000</v>
+      </c>
+      <c r="D46" s="2">
+        <v>16</v>
+      </c>
+      <c r="E46" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C47" s="14">
+        <v>500000</v>
+      </c>
+      <c r="D47" s="2">
+        <v>5</v>
+      </c>
+      <c r="E47" s="2">
+        <f t="shared" si="2"/>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48" s="14">
+        <v>2000000</v>
+      </c>
+      <c r="D48" s="2">
+        <v>8</v>
+      </c>
+      <c r="E48" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="14">
+        <v>200000</v>
+      </c>
+      <c r="D49" s="2">
+        <v>4</v>
+      </c>
+      <c r="E49" s="2">
+        <f t="shared" ref="E49" si="3">D49/8</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="8"/>
+      <c r="C50" s="7">
+        <f>SUM(C39:C49)</f>
+        <v>10700000</v>
+      </c>
+      <c r="D50">
+        <f>SUM(D39:D49)</f>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D51" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C46" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="6">
-        <f>C32+C44</f>
-        <v>17600000</v>
-      </c>
-      <c r="B47" s="1">
-        <f>D32+D44</f>
-        <v>247</v>
-      </c>
-      <c r="C47" s="10">
-        <f>B47/8</f>
-        <v>30.875</v>
-      </c>
-      <c r="D47" s="12">
-        <f>ROUNDUP(C47/24,1)</f>
-        <v>1.3</v>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="6">
+        <f>C37+C50</f>
+        <v>24750000</v>
+      </c>
+      <c r="B52" s="1">
+        <f>D50+D37</f>
+        <v>227</v>
+      </c>
+      <c r="C52" s="10">
+        <f>B52/6</f>
+        <v>37.833333333333336</v>
+      </c>
+      <c r="D52" s="12">
+        <f>C52/24</f>
+        <v>1.5763888888888891</v>
       </c>
     </row>
   </sheetData>

--- a/betogaizin.xlsx
+++ b/betogaizin.xlsx
@@ -672,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
